--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18232535.40189206</v>
+        <v>18369729.77410433</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24258605.19511736</v>
+        <v>24395799.56732962</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1490622.619839977</v>
+        <v>1464770.155358656</v>
       </c>
     </row>
     <row r="11">
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8143,19 +8145,19 @@
         <v>87.67503958280489</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
@@ -8386,7 +8388,7 @@
         <v>82.99560390240157</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
         <v>89.52320263194594</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
@@ -8471,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
@@ -8547,10 +8549,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>87.67503958280489</v>
@@ -8623,7 +8625,7 @@
         <v>82.99560390240157</v>
       </c>
       <c r="O10" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>89.52320263194594</v>
@@ -8690,13 +8692,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
@@ -8708,7 +8710,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8775,19 +8777,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8848,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8866,7 +8868,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>149.7250515977273</v>
@@ -9003,28 +9005,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9094,16 +9096,16 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N16" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9325,22 +9327,22 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9562,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>82.99560390240157</v>
@@ -9574,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9796,13 +9798,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>82.99560390240157</v>
@@ -9811,10 +9813,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P25" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
         <v>149.7250515977273</v>
@@ -9887,7 +9889,7 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10033,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>87.67503958280489</v>
@@ -10045,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>89.52320263194594</v>
@@ -10115,13 +10117,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10270,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M31" t="n">
         <v>90.30175956594327</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O31" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10510,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10665,13 +10667,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10744,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L37" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N37" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P37" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>98.47825105913979</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>149.1184913377841</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10990,10 +10992,10 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O40" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>89.52320263194594</v>
@@ -11063,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
@@ -11078,7 +11080,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O43" t="n">
         <v>89.9967499936978</v>
@@ -11236,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -11458,22 +11460,22 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,28 +22570,28 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>140.1305995791859</v>
@@ -22650,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -22659,16 +22661,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>94.69167757657658</v>
@@ -22735,19 +22737,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R4" t="n">
         <v>122.6619794737488</v>
@@ -22805,10 +22807,10 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
@@ -22896,16 +22898,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>94.69167757657658</v>
@@ -22966,7 +22968,7 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -23042,19 +23044,19 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>140.1305995791859</v>
@@ -23127,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23139,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>94.69167757657658</v>
@@ -23203,7 +23205,7 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23215,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -23282,13 +23284,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>140.1305995791859</v>
@@ -23367,19 +23369,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>94.69167757657658</v>
@@ -23440,10 +23442,10 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M13" t="n">
         <v>90.30175956594327</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R13" t="n">
         <v>122.6619794737488</v>
@@ -23522,7 +23524,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23595,28 +23597,28 @@
         <v>64.689547</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>94.69167757657658</v>
@@ -23686,16 +23688,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P16" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R16" t="n">
         <v>122.6619794737488</v>
@@ -23753,13 +23755,13 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>149.7250515977273</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>140.1305995791859</v>
@@ -23835,25 +23837,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>94.69167757657658</v>
@@ -23917,22 +23919,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N19" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -23993,7 +23995,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
         <v>153.2481697304917</v>
@@ -24002,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
         <v>149.5638374240964</v>
@@ -24069,7 +24071,7 @@
         <v>64.689547</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -24084,13 +24086,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>94.69167757657658</v>
@@ -24154,10 +24156,10 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24166,10 +24168,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -24227,22 +24229,22 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -24309,7 +24311,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -24324,10 +24326,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>94.69167757657658</v>
@@ -24388,13 +24390,13 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -24470,7 +24472,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -24549,7 +24551,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -24561,7 +24563,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24625,7 +24627,7 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24637,7 +24639,7 @@
         <v>82.99560390240157</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24707,13 +24709,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>149.5638374240964</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>140.1305995791859</v>
@@ -24789,16 +24791,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -24862,25 +24864,25 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L31" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R31" t="n">
         <v>122.6619794737488</v>
@@ -24944,22 +24946,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>140.1305995791859</v>
@@ -25017,13 +25019,13 @@
         <v>64.689547</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,10 +25034,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -25102,22 +25104,22 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L34" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -25181,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
         <v>149.7250515977273</v>
@@ -25193,7 +25195,7 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25257,13 +25259,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -25336,22 +25338,22 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K37" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O37" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -25415,13 +25417,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>140.1305995791859</v>
@@ -25491,10 +25493,10 @@
         <v>64.689547</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
@@ -25503,16 +25505,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>94.69167757657658</v>
@@ -25582,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25655,13 +25657,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>140.1305995791859</v>
@@ -25728,25 +25730,25 @@
         <v>64.689547</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25819,7 +25821,7 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N43" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -25886,13 +25888,13 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
         <v>149.7250515977273</v>
@@ -25901,13 +25903,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>140.1305995791859</v>
@@ -25965,7 +25967,7 @@
         <v>64.689547</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -25980,10 +25982,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26050,22 +26052,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100673.7716172829</v>
+        <v>160240.7341674365</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>133621.513603492</v>
+        <v>163575.8060750536</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>131101.4841837918</v>
+        <v>141155.2129651844</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116881.4742821349</v>
+        <v>133579.527302941</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>183234.8557436968</v>
+        <v>147654.2532001366</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87205.43113883529</v>
+        <v>144241.0062941237</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>132350.4040826108</v>
+        <v>85021.55198693096</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113924.7040372537</v>
+        <v>60067.52080873409</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144094.951508763</v>
+        <v>124162.1901448765</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79520.86868041061</v>
+        <v>161578.192819902</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146830.1009040829</v>
+        <v>82689.07870525835</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160166.4541610836</v>
+        <v>135234.0190498754</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75557.34428294681</v>
+        <v>110296.6091439527</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169854.315369443</v>
+        <v>139818.7664674401</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178837.3896244724</v>
+        <v>68504.53353987169</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-103933.7789942933</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18369729.77410433</v>
+        <v>15387832.6189482</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24395799.56732962</v>
+        <v>21413902.41217352</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1464770.155358656</v>
+        <v>3041214.657747575</v>
       </c>
     </row>
     <row r="11">
@@ -7987,13 +7987,13 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8002,7 +8002,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
         <v>82.44445733333335</v>
@@ -8063,10 +8063,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -8075,13 +8075,13 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
         <v>83.85861781084799</v>
@@ -8148,16 +8148,16 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P4" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
@@ -8239,7 +8239,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
         <v>82.44445733333335</v>
@@ -8300,25 +8300,25 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
@@ -8394,7 +8394,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8464,19 +8464,19 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P10" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
         <v>149.7250515977273</v>
@@ -8704,7 +8704,7 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
@@ -8713,7 +8713,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8789,10 +8789,10 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N13" t="n">
         <v>82.99560390240157</v>
@@ -8868,7 +8868,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
         <v>149.7250515977273</v>
@@ -8950,7 +8950,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -9020,7 +9020,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9029,7 +9029,7 @@
         <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
         <v>83.85861781084799</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M16" t="n">
         <v>90.30175956594327</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P16" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9187,7 +9187,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>83.85861781084799</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P19" t="n">
         <v>89.52320263194594</v>
@@ -9403,28 +9403,28 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
@@ -9500,10 +9500,10 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
         <v>98.47825105913979</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
         <v>153.2481697304917</v>
@@ -9649,19 +9649,19 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N25" t="n">
         <v>82.99560390240157</v>
@@ -9813,7 +9813,7 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q25" t="n">
         <v>98.47825105913979</v>
@@ -9877,7 +9877,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>153.2481697304917</v>
@@ -9889,16 +9889,16 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L28" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P28" t="n">
         <v>89.52320263194594</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
@@ -10126,7 +10126,7 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10135,7 +10135,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
@@ -10202,19 +10202,19 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L31" t="n">
         <v>87.67503958280489</v>
@@ -10284,13 +10284,13 @@
         <v>82.99560390240157</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
@@ -10439,19 +10439,19 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L34" t="n">
         <v>87.67503958280489</v>
@@ -10524,7 +10524,7 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q34" t="n">
         <v>98.47825105913979</v>
@@ -10591,25 +10591,25 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
         <v>82.44445733333335</v>
@@ -10679,16 +10679,16 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>83.85861781084799</v>
@@ -10755,13 +10755,13 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O37" t="n">
         <v>89.9967499936978</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q37" t="n">
         <v>98.47825105913979</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
         <v>143.0584031792374</v>
@@ -10831,22 +10831,22 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L40" t="n">
         <v>87.67503958280489</v>
@@ -10995,13 +10995,13 @@
         <v>82.99560390240157</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P40" t="n">
         <v>89.52320263194594</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
@@ -11083,7 +11083,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
         <v>82.44445733333335</v>
@@ -11147,22 +11147,22 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>83.85861781084799</v>
@@ -11226,7 +11226,7 @@
         <v>87.67503958280489</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N43" t="n">
         <v>82.99560390240157</v>
@@ -11235,10 +11235,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -11387,19 +11387,19 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>83.85861781084799</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M46" t="n">
         <v>90.30175956594327</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22579,13 +22579,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22646,7 +22646,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22655,10 +22655,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22667,13 +22667,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -22728,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22740,16 +22740,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>122.6619794737488</v>
@@ -22813,10 +22813,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -22883,7 +22883,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22892,25 +22892,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -22965,10 +22965,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>122.6619794737488</v>
@@ -23044,7 +23044,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23056,19 +23056,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23120,34 +23120,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -23202,28 +23202,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>122.6619794737488</v>
@@ -23281,13 +23281,13 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23357,10 +23357,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -23439,16 +23439,16 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>122.6619794737488</v>
@@ -23518,13 +23518,13 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23594,16 +23594,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -23676,28 +23676,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>122.6619794737488</v>
@@ -23764,13 +23764,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23831,34 +23831,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -23913,22 +23913,22 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23995,28 +23995,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24068,22 +24068,22 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -24150,25 +24150,25 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -24229,10 +24229,10 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24241,19 +24241,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24305,34 +24305,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
@@ -24387,16 +24387,16 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -24469,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24481,16 +24481,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24542,34 +24542,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -24624,22 +24624,22 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24779,10 +24779,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24794,19 +24794,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -24861,10 +24861,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24876,13 +24876,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>122.6619794737488</v>
@@ -24943,28 +24943,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -25016,10 +25016,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25031,19 +25031,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -25098,10 +25098,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -25183,25 +25183,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25253,7 +25253,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25271,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
@@ -25335,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25347,13 +25347,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25423,22 +25423,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25490,34 +25490,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -25572,10 +25572,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25587,13 +25587,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -25654,16 +25654,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25727,7 +25727,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25739,22 +25739,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -25809,7 +25809,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -25888,31 +25888,31 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25964,13 +25964,13 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25979,19 +25979,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -26046,28 +26046,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>160240.7341674365</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>163575.8060750536</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>141155.2129651844</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133579.527302941</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>147654.2532001366</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144241.0062941237</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85021.55198693096</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60067.52080873409</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124162.1901448765</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161578.192819902</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82689.07870525835</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135234.0190498754</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110296.6091439527</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139818.7664674401</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68504.53353987169</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
   </sheetData>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.1934941449</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.1934941449</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.1934941449</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-1427.593494144901</v>
       </c>
     </row>
   </sheetData>
